--- a/data/NFHS5 Couples Variable List.xlsx
+++ b/data/NFHS5 Couples Variable List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87900C30-1EDC-4664-9FBA-46BB757DCD01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFCBDC5-3CF0-4472-9362-AF235ED44D2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1944,19 +1944,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E6B7D-B624-4BDD-B559-1E186C27DE33}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.26953125" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>221</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>225</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>227</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>229</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>206</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>237</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>245</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>256</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>134</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>135</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>138</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>140</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>176</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>277</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>281</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>285</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>287</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>475</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>476</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>477</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>478</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>479</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>488</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>489</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>498</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>492</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>499</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>495</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>504</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>506</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>510</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>511</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>105</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>107</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>172</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>298</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>305</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>309</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>313</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>316</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>338</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>346</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>29</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>30</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>371</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>518</v>
       </c>

--- a/data/NFHS5 Couples Variable List.xlsx
+++ b/data/NFHS5 Couples Variable List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFCBDC5-3CF0-4472-9362-AF235ED44D2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBD87DE-FE50-490D-B894-97153CCE9437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="524">
   <si>
     <t>label</t>
   </si>
@@ -715,9 +715,6 @@
     <t>nmembers</t>
   </si>
   <si>
-    <t>caste of hh</t>
-  </si>
-  <si>
     <t>eduyr</t>
   </si>
   <si>
@@ -1586,6 +1583,15 @@
   </si>
   <si>
     <t>age1stmarriage</t>
+  </si>
+  <si>
+    <t>iamr</t>
+  </si>
+  <si>
+    <t>caste_hh</t>
+  </si>
+  <si>
+    <t>caste of head of household</t>
   </si>
 </sst>
 </file>
@@ -1942,21 +1948,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E6B7D-B624-4BDD-B559-1E186C27DE33}">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,13 +1977,16 @@
         <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1989,14 +1999,14 @@
       <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
       <c r="F2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2010,7 +2020,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2023,28 +2033,28 @@
       <c r="D4" t="s">
         <v>215</v>
       </c>
-      <c r="E4" t="s">
-        <v>380</v>
-      </c>
       <c r="F4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="G4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>216</v>
       </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
       <c r="F5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -2058,18 +2068,21 @@
         <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" t="s">
         <v>467</v>
-      </c>
-      <c r="B7" t="s">
-        <v>468</v>
       </c>
       <c r="C7" t="s">
         <v>194</v>
@@ -2078,7 +2091,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2092,13 +2105,16 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2111,14 +2127,14 @@
       <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
       <c r="F9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2131,14 +2147,14 @@
       <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
       <c r="F10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2152,13 +2168,16 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -2171,84 +2190,84 @@
       <c r="D12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
       <c r="F12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>219</v>
       </c>
       <c r="B13" t="s">
         <v>220</v>
       </c>
-      <c r="E13" t="s">
-        <v>381</v>
-      </c>
       <c r="F13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="G13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>221</v>
       </c>
       <c r="B14" t="s">
         <v>222</v>
       </c>
-      <c r="E14" t="s">
-        <v>382</v>
-      </c>
       <c r="F14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="G14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>223</v>
       </c>
       <c r="B15" t="s">
         <v>224</v>
       </c>
-      <c r="E15" t="s">
-        <v>383</v>
-      </c>
       <c r="F15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="G15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>225</v>
       </c>
       <c r="B16" t="s">
         <v>226</v>
       </c>
-      <c r="E16" t="s">
-        <v>384</v>
-      </c>
       <c r="F16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="G16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>227</v>
       </c>
       <c r="B17" t="s">
         <v>228</v>
       </c>
-      <c r="E17" t="s">
-        <v>385</v>
-      </c>
       <c r="F17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="G17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>229</v>
       </c>
@@ -2256,16 +2275,16 @@
         <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>463</v>
-      </c>
-      <c r="E18" t="s">
-        <v>386</v>
+        <v>462</v>
       </c>
       <c r="F18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="G18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2278,14 +2297,14 @@
       <c r="D19" t="s">
         <v>68</v>
       </c>
-      <c r="E19" t="s">
-        <v>516</v>
-      </c>
       <c r="F19" t="s">
+        <v>515</v>
+      </c>
+      <c r="G19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +2312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2306,1580 +2325,1601 @@
       <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>523</v>
+      </c>
+      <c r="B22" t="s">
+        <v>522</v>
+      </c>
+      <c r="G22" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>469</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" t="s">
         <v>231</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
         <v>200</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>433</v>
+      </c>
+      <c r="C41" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C42" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" t="s">
+        <v>437</v>
+      </c>
+      <c r="C45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>438</v>
+      </c>
+      <c r="C46" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>439</v>
+      </c>
+      <c r="C47" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>440</v>
+      </c>
+      <c r="C48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>441</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s">
+        <v>442</v>
+      </c>
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" t="s">
+        <v>443</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" t="s">
+        <v>444</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" t="s">
+        <v>445</v>
+      </c>
+      <c r="C54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" t="s">
+        <v>446</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s">
+        <v>447</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
+        <v>448</v>
+      </c>
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" t="s">
+        <v>449</v>
+      </c>
+      <c r="C58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
+        <v>450</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" t="s">
+        <v>451</v>
+      </c>
+      <c r="C60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61" t="s">
+        <v>97</v>
+      </c>
+      <c r="G61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" t="s">
+        <v>203</v>
+      </c>
+      <c r="G63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" t="s">
+        <v>279</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" t="s">
+        <v>283</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>286</v>
+      </c>
+      <c r="B68" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>474</v>
+      </c>
+      <c r="B69" t="s">
+        <v>472</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>475</v>
+      </c>
+      <c r="B70" t="s">
         <v>470</v>
       </c>
-      <c r="C23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" t="s">
-        <v>232</v>
-      </c>
-      <c r="C24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" t="s">
-        <v>208</v>
-      </c>
-      <c r="F24" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" t="s">
-        <v>191</v>
-      </c>
-      <c r="F28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" t="s">
-        <v>469</v>
-      </c>
-      <c r="C29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B32" t="s">
-        <v>238</v>
-      </c>
-      <c r="F32" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>239</v>
-      </c>
-      <c r="B33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>241</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" t="s">
-        <v>243</v>
-      </c>
-      <c r="F35" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" t="s">
-        <v>247</v>
-      </c>
-      <c r="D37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F37" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C39" t="s">
-        <v>252</v>
-      </c>
-      <c r="D39" t="s">
-        <v>253</v>
-      </c>
-      <c r="F39" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>434</v>
-      </c>
-      <c r="C40" t="s">
-        <v>254</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>256</v>
-      </c>
-      <c r="B41" t="s">
-        <v>435</v>
-      </c>
-      <c r="C41" t="s">
-        <v>257</v>
-      </c>
-      <c r="D41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>436</v>
-      </c>
-      <c r="C42" t="s">
-        <v>259</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>437</v>
-      </c>
-      <c r="C43" t="s">
-        <v>261</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>263</v>
-      </c>
-      <c r="B44" t="s">
-        <v>438</v>
-      </c>
-      <c r="C44" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>439</v>
-      </c>
-      <c r="C45" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s">
-        <v>440</v>
-      </c>
-      <c r="C46" t="s">
-        <v>268</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>441</v>
-      </c>
-      <c r="C47" t="s">
-        <v>270</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" t="s">
-        <v>272</v>
-      </c>
-      <c r="C48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F48" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>442</v>
-      </c>
-      <c r="C49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" t="s">
-        <v>443</v>
-      </c>
-      <c r="C50" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" t="s">
-        <v>444</v>
-      </c>
-      <c r="C51" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>135</v>
-      </c>
-      <c r="B52" t="s">
-        <v>445</v>
-      </c>
-      <c r="C52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" t="s">
-        <v>446</v>
-      </c>
-      <c r="C53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" t="s">
-        <v>447</v>
-      </c>
-      <c r="C54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" t="s">
-        <v>448</v>
-      </c>
-      <c r="C55" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" t="s">
-        <v>449</v>
-      </c>
-      <c r="C56" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" t="s">
-        <v>450</v>
-      </c>
-      <c r="C57" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" t="s">
-        <v>451</v>
-      </c>
-      <c r="C58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="F70" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>476</v>
+      </c>
+      <c r="B71" t="s">
+        <v>479</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>477</v>
+      </c>
+      <c r="B72" t="s">
+        <v>480</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>478</v>
+      </c>
+      <c r="B73" t="s">
+        <v>481</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>487</v>
+      </c>
+      <c r="B74" t="s">
+        <v>489</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>488</v>
+      </c>
+      <c r="B75" t="s">
+        <v>485</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>497</v>
+      </c>
+      <c r="B76" t="s">
+        <v>496</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>491</v>
+      </c>
+      <c r="B77" t="s">
+        <v>492</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>498</v>
+      </c>
+      <c r="B78" t="s">
+        <v>495</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>494</v>
+      </c>
+      <c r="B79" t="s">
+        <v>499</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>503</v>
+      </c>
+      <c r="B80" t="s">
+        <v>504</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>505</v>
+      </c>
+      <c r="B81" t="s">
+        <v>506</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>509</v>
+      </c>
+      <c r="B82" t="s">
+        <v>511</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>510</v>
+      </c>
+      <c r="B83" t="s">
+        <v>512</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>288</v>
+      </c>
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" t="s">
+        <v>103</v>
+      </c>
+      <c r="G85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" t="s">
+        <v>292</v>
+      </c>
+      <c r="C88" t="s">
+        <v>110</v>
+      </c>
+      <c r="G88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" t="s">
+        <v>293</v>
+      </c>
+      <c r="C89" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D90" t="s">
+        <v>296</v>
+      </c>
+      <c r="F90" t="s">
+        <v>406</v>
+      </c>
+      <c r="G90" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>297</v>
+      </c>
+      <c r="B91" t="s">
+        <v>298</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="F91" t="s">
+        <v>407</v>
+      </c>
+      <c r="G91" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" t="s">
         <v>452</v>
       </c>
-      <c r="C59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" t="s">
-        <v>273</v>
-      </c>
-      <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" t="s">
-        <v>274</v>
-      </c>
-      <c r="C61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" t="s">
-        <v>275</v>
-      </c>
-      <c r="C62" t="s">
-        <v>203</v>
-      </c>
-      <c r="F62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
-        <v>276</v>
-      </c>
-      <c r="C63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>277</v>
-      </c>
-      <c r="B64" t="s">
-        <v>278</v>
-      </c>
-      <c r="C64" t="s">
-        <v>279</v>
-      </c>
-      <c r="D64" t="s">
-        <v>280</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>281</v>
-      </c>
-      <c r="B65" t="s">
-        <v>282</v>
-      </c>
-      <c r="C65" t="s">
-        <v>283</v>
-      </c>
-      <c r="D65" t="s">
-        <v>284</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>285</v>
-      </c>
-      <c r="B66" t="s">
-        <v>286</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>287</v>
-      </c>
-      <c r="B67" t="s">
-        <v>288</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>475</v>
-      </c>
-      <c r="B68" t="s">
-        <v>473</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>476</v>
-      </c>
-      <c r="B69" t="s">
-        <v>471</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>477</v>
-      </c>
-      <c r="B70" t="s">
-        <v>480</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>478</v>
-      </c>
-      <c r="B71" t="s">
-        <v>481</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>479</v>
-      </c>
-      <c r="B72" t="s">
-        <v>482</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>488</v>
-      </c>
-      <c r="B73" t="s">
-        <v>490</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>489</v>
-      </c>
-      <c r="B74" t="s">
-        <v>486</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>498</v>
-      </c>
-      <c r="B75" t="s">
-        <v>497</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>492</v>
-      </c>
-      <c r="B76" t="s">
-        <v>493</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>499</v>
-      </c>
-      <c r="B77" t="s">
-        <v>496</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>495</v>
-      </c>
-      <c r="B78" t="s">
-        <v>500</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>504</v>
-      </c>
-      <c r="B79" t="s">
-        <v>505</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>506</v>
-      </c>
-      <c r="B80" t="s">
-        <v>507</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>510</v>
-      </c>
-      <c r="B81" t="s">
-        <v>512</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>511</v>
-      </c>
-      <c r="B82" t="s">
-        <v>513</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" t="s">
-        <v>289</v>
-      </c>
-      <c r="C83" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84" t="s">
-        <v>290</v>
-      </c>
-      <c r="C84" t="s">
-        <v>103</v>
-      </c>
-      <c r="F84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>105</v>
-      </c>
-      <c r="B85" t="s">
-        <v>291</v>
-      </c>
-      <c r="C85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>106</v>
-      </c>
-      <c r="B86" t="s">
-        <v>292</v>
-      </c>
-      <c r="C86" t="s">
-        <v>109</v>
-      </c>
-      <c r="F86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87" t="s">
-        <v>293</v>
-      </c>
-      <c r="C87" t="s">
-        <v>110</v>
-      </c>
-      <c r="F87" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>204</v>
-      </c>
-      <c r="B88" t="s">
-        <v>294</v>
-      </c>
-      <c r="C88" t="s">
-        <v>205</v>
-      </c>
-      <c r="F88" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>172</v>
-      </c>
-      <c r="B89" t="s">
-        <v>295</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D89" t="s">
-        <v>297</v>
-      </c>
-      <c r="E89" t="s">
-        <v>407</v>
-      </c>
-      <c r="F89" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>298</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C92" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="E90" t="s">
-        <v>408</v>
-      </c>
-      <c r="F90" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>171</v>
-      </c>
-      <c r="B91" t="s">
-        <v>453</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="D92" t="s">
         <v>300</v>
       </c>
-      <c r="D91" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>111</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
+        <v>456</v>
+      </c>
+      <c r="C93" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" t="s">
         <v>457</v>
       </c>
-      <c r="C92" t="s">
-        <v>121</v>
-      </c>
-      <c r="D92" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>112</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" t="s">
         <v>458</v>
       </c>
-      <c r="C93" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" t="s">
         <v>459</v>
       </c>
-      <c r="C94" t="s">
-        <v>123</v>
-      </c>
-      <c r="D94" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C96" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" t="s">
         <v>460</v>
       </c>
-      <c r="C95" t="s">
-        <v>124</v>
-      </c>
-      <c r="D95" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>115</v>
-      </c>
-      <c r="B96" t="s">
-        <v>461</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>125</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>116</v>
-      </c>
-      <c r="B97" t="s">
-        <v>455</v>
-      </c>
-      <c r="C97" t="s">
-        <v>126</v>
-      </c>
-      <c r="D97" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>117</v>
       </c>
       <c r="B98" t="s">
         <v>454</v>
       </c>
       <c r="C98" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" t="s">
+        <v>453</v>
+      </c>
+      <c r="C99" t="s">
         <v>127</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>118</v>
       </c>
-      <c r="B99" t="s">
-        <v>456</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>455</v>
+      </c>
+      <c r="C100" t="s">
         <v>128</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>119</v>
       </c>
-      <c r="B100" t="s">
-        <v>462</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>461</v>
+      </c>
+      <c r="C101" t="s">
         <v>129</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>120</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
+        <v>516</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" t="s">
+        <v>170</v>
+      </c>
+      <c r="G102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C104" t="s">
+        <v>302</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>308</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" t="s">
+        <v>310</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>315</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" t="s">
+        <v>317</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" t="s">
+        <v>321</v>
+      </c>
+      <c r="G109" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C110" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" t="s">
+        <v>324</v>
+      </c>
+      <c r="G110" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C111" t="s">
+        <v>326</v>
+      </c>
+      <c r="D111" t="s">
+        <v>327</v>
+      </c>
+      <c r="G111" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" t="s">
+        <v>329</v>
+      </c>
+      <c r="D112" t="s">
+        <v>330</v>
+      </c>
+      <c r="G112" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" t="s">
+        <v>333</v>
+      </c>
+      <c r="G113" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" t="s">
+        <v>335</v>
+      </c>
+      <c r="D114" t="s">
+        <v>336</v>
+      </c>
+      <c r="G114" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>337</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C115" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G115" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C116" t="s">
+        <v>340</v>
+      </c>
+      <c r="D116" t="s">
+        <v>341</v>
+      </c>
+      <c r="G116" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C117" t="s">
+        <v>343</v>
+      </c>
+      <c r="D117" t="s">
+        <v>344</v>
+      </c>
+      <c r="G117" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>345</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C118" t="s">
+        <v>347</v>
+      </c>
+      <c r="D118" t="s">
+        <v>348</v>
+      </c>
+      <c r="G118" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C119" t="s">
+        <v>350</v>
+      </c>
+      <c r="D119" t="s">
+        <v>351</v>
+      </c>
+      <c r="G119" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C120" t="s">
+        <v>353</v>
+      </c>
+      <c r="D120" t="s">
+        <v>354</v>
+      </c>
+      <c r="G120" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" t="s">
+        <v>356</v>
+      </c>
+      <c r="D121" t="s">
+        <v>357</v>
+      </c>
+      <c r="G121" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C122" t="s">
+        <v>359</v>
+      </c>
+      <c r="D122" t="s">
+        <v>360</v>
+      </c>
+      <c r="G122" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C123" t="s">
+        <v>362</v>
+      </c>
+      <c r="D123" t="s">
+        <v>363</v>
+      </c>
+      <c r="G123" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C124" t="s">
+        <v>365</v>
+      </c>
+      <c r="D124" t="s">
+        <v>366</v>
+      </c>
+      <c r="G124" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C125" t="s">
+        <v>368</v>
+      </c>
+      <c r="D125" t="s">
+        <v>369</v>
+      </c>
+      <c r="G125" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>370</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C126" t="s">
+        <v>372</v>
+      </c>
+      <c r="D126" t="s">
+        <v>373</v>
+      </c>
+      <c r="G126" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C127" t="s">
+        <v>375</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>209</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C128" t="s">
+        <v>210</v>
+      </c>
+      <c r="D128" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>517</v>
       </c>
-      <c r="C101" t="s">
-        <v>130</v>
-      </c>
-      <c r="D101" t="s">
-        <v>170</v>
-      </c>
-      <c r="F101" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C102" t="s">
-        <v>62</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C103" t="s">
-        <v>303</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>305</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C104" t="s">
-        <v>307</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>309</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C105" t="s">
-        <v>311</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>316</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C107" t="s">
-        <v>318</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C108" t="s">
-        <v>321</v>
-      </c>
-      <c r="D108" t="s">
-        <v>322</v>
-      </c>
-      <c r="F108" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C109" t="s">
-        <v>324</v>
-      </c>
-      <c r="D109" t="s">
-        <v>325</v>
-      </c>
-      <c r="F109" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>16</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C110" t="s">
-        <v>327</v>
-      </c>
-      <c r="D110" t="s">
-        <v>328</v>
-      </c>
-      <c r="F110" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C111" t="s">
-        <v>330</v>
-      </c>
-      <c r="D111" t="s">
-        <v>331</v>
-      </c>
-      <c r="F111" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C112" t="s">
-        <v>333</v>
-      </c>
-      <c r="D112" t="s">
-        <v>334</v>
-      </c>
-      <c r="F112" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>19</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C113" t="s">
-        <v>336</v>
-      </c>
-      <c r="D113" t="s">
-        <v>337</v>
-      </c>
-      <c r="F113" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>338</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C114" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114" t="s">
-        <v>78</v>
-      </c>
-      <c r="F114" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>20</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C115" t="s">
-        <v>341</v>
-      </c>
-      <c r="D115" t="s">
-        <v>342</v>
-      </c>
-      <c r="F115" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C116" t="s">
-        <v>344</v>
-      </c>
-      <c r="D116" t="s">
-        <v>345</v>
-      </c>
-      <c r="F116" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>346</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C117" t="s">
-        <v>348</v>
-      </c>
-      <c r="D117" t="s">
-        <v>349</v>
-      </c>
-      <c r="F117" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C118" t="s">
-        <v>351</v>
-      </c>
-      <c r="D118" t="s">
-        <v>352</v>
-      </c>
-      <c r="F118" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>25</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C119" t="s">
-        <v>354</v>
-      </c>
-      <c r="D119" t="s">
-        <v>355</v>
-      </c>
-      <c r="F119" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C120" t="s">
-        <v>357</v>
-      </c>
-      <c r="D120" t="s">
-        <v>358</v>
-      </c>
-      <c r="F120" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>27</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C121" t="s">
-        <v>360</v>
-      </c>
-      <c r="D121" t="s">
-        <v>361</v>
-      </c>
-      <c r="F121" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>28</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C122" t="s">
-        <v>363</v>
-      </c>
-      <c r="D122" t="s">
-        <v>364</v>
-      </c>
-      <c r="F122" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>29</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C123" t="s">
-        <v>366</v>
-      </c>
-      <c r="D123" t="s">
-        <v>367</v>
-      </c>
-      <c r="F123" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>30</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C124" t="s">
-        <v>369</v>
-      </c>
-      <c r="D124" t="s">
-        <v>370</v>
-      </c>
-      <c r="F124" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>371</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C125" t="s">
-        <v>373</v>
-      </c>
-      <c r="D125" t="s">
-        <v>374</v>
-      </c>
-      <c r="F125" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>31</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C126" t="s">
-        <v>376</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>209</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C127" t="s">
-        <v>210</v>
-      </c>
-      <c r="D127" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B129" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C129" t="s">
         <v>518</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D129" t="s">
         <v>519</v>
-      </c>
-      <c r="D128" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/data/NFHS5 Couples Variable List.xlsx
+++ b/data/NFHS5 Couples Variable List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBD87DE-FE50-490D-B894-97153CCE9437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0AA09-9DA6-40C8-A962-2E80E6C89158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iacr7c variables" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="537">
   <si>
     <t>label</t>
   </si>
@@ -1592,6 +1592,45 @@
   </si>
   <si>
     <t>caste of head of household</t>
+  </si>
+  <si>
+    <t>Years since first cohabitation</t>
+  </si>
+  <si>
+    <t>lengthcohabitation</t>
+  </si>
+  <si>
+    <t>mv512</t>
+  </si>
+  <si>
+    <t>sm219</t>
+  </si>
+  <si>
+    <t>Duration of separation (1xx-100 Months, 2xx - 200 Years)</t>
+  </si>
+  <si>
+    <t>lengthseparation</t>
+  </si>
+  <si>
+    <t>v512</t>
+  </si>
+  <si>
+    <t>Number of wives/partners</t>
+  </si>
+  <si>
+    <t>npartners</t>
+  </si>
+  <si>
+    <t>mv505</t>
+  </si>
+  <si>
+    <t>Related to current husband prior to marriage</t>
+  </si>
+  <si>
+    <t>consang_marriage</t>
+  </si>
+  <si>
+    <t>s310</t>
   </si>
 </sst>
 </file>
@@ -1948,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E6B7D-B624-4BDD-B559-1E186C27DE33}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3922,6 +3961,53 @@
         <v>519</v>
       </c>
     </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>524</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C130" t="s">
+        <v>530</v>
+      </c>
+      <c r="D130" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>528</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D131" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>531</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D132" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>534</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C133" t="s">
+        <v>536</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
